--- a/templates/cambio_dia_laboral.xlsx
+++ b/templates/cambio_dia_laboral.xlsx
@@ -14,7 +14,11 @@
   <sheets>
     <sheet name="CAMBIO DE DIA LABORAL" sheetId="7" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'CAMBIO DE DIA LABORAL'!$A$1:$V$27</definedName>
     <definedName name="REGISTRA_ASISTENCIA">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -675,21 +679,60 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -703,45 +746,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,7 +816,113 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>132900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="[1]!imp_repTE">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{073DE87C-5B49-4E24-AC99-820162597289}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9372600" y="937260"/>
+          <a:ext cx="390525" cy="376740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="FICHA TÉCNICA"/>
+      <sheetName val="BUSCADOR"/>
+      <sheetName val="BDEDAD"/>
+      <sheetName val="SOLICITUD CONTRATO"/>
+      <sheetName val="T.EXTRA"/>
+      <sheetName val="REPORTE"/>
+      <sheetName val="BD"/>
+      <sheetName val="BD PE"/>
+      <sheetName val="D"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="imp_repTE"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1019,7 +1129,7 @@
   <dimension ref="A1:AH1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25:U25"/>
+      <selection sqref="A1:V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1078,21 +1188,21 @@
       <c r="AH1" s="19"/>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
@@ -1116,19 +1226,19 @@
       <c r="AH2" s="19"/>
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
@@ -1197,21 +1307,21 @@
       <c r="E5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="66"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="40"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="44"/>
       <c r="U5" s="10"/>
       <c r="V5" s="22"/>
       <c r="W5" s="23"/>
@@ -1237,19 +1347,19 @@
       <c r="G6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
       <c r="U6" s="12"/>
       <c r="V6" s="25"/>
       <c r="W6" s="24"/>
@@ -1275,19 +1385,19 @@
       <c r="G7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
       <c r="U7" s="12"/>
       <c r="V7" s="25"/>
       <c r="W7" s="24"/>
@@ -1313,19 +1423,19 @@
       <c r="G8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
       <c r="U8" s="12"/>
       <c r="V8" s="26"/>
       <c r="W8" s="24"/>
@@ -1351,19 +1461,19 @@
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="68"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
       <c r="U9" s="14"/>
       <c r="V9" s="26"/>
       <c r="W9" s="24"/>
@@ -1389,19 +1499,19 @@
       <c r="G10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
       <c r="U10" s="14"/>
       <c r="V10" s="26"/>
       <c r="W10" s="24"/>
@@ -1427,19 +1537,19 @@
       <c r="G11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="68"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
       <c r="W11" s="24"/>
       <c r="X11" s="24"/>
       <c r="Y11" s="24"/>
@@ -1492,26 +1602,26 @@
     <row r="13" spans="1:34" ht="18.75" customHeight="1">
       <c r="A13" s="19"/>
       <c r="B13" s="24"/>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="60"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="53"/>
       <c r="U13" s="27"/>
       <c r="V13" s="28"/>
       <c r="W13" s="19"/>
@@ -1530,26 +1640,26 @@
     <row r="14" spans="1:34" ht="18.75" customHeight="1">
       <c r="A14" s="19"/>
       <c r="B14" s="24"/>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="60"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="53"/>
       <c r="U14" s="27"/>
       <c r="V14" s="26"/>
       <c r="W14" s="19"/>
@@ -1568,26 +1678,26 @@
     <row r="15" spans="1:34" ht="30" customHeight="1">
       <c r="A15" s="19"/>
       <c r="B15" s="24"/>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="62"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="56"/>
       <c r="U15" s="29"/>
       <c r="V15" s="19"/>
       <c r="W15" s="19"/>
@@ -1606,24 +1716,24 @@
     <row r="16" spans="1:34" ht="30" customHeight="1">
       <c r="A16" s="19"/>
       <c r="B16" s="24"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="63"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="58"/>
       <c r="U16" s="29"/>
       <c r="V16" s="19"/>
       <c r="W16" s="19"/>
@@ -1642,24 +1752,24 @@
     <row r="17" spans="1:34" ht="30" customHeight="1">
       <c r="A17" s="19"/>
       <c r="B17" s="24"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="64"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="61"/>
       <c r="U17" s="29"/>
       <c r="V17" s="26"/>
       <c r="W17" s="19"/>
@@ -1784,33 +1894,33 @@
       <c r="AH20" s="19"/>
     </row>
     <row r="21" spans="1:34" ht="16.5" customHeight="1">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="50" t="s">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="50" t="s">
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
       <c r="V21" s="19"/>
       <c r="W21" s="19"/>
       <c r="X21" s="19"/>
@@ -1898,26 +2008,26 @@
     </row>
     <row r="24" spans="1:34" ht="16.5" customHeight="1">
       <c r="A24" s="19"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="55"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="74"/>
       <c r="V24" s="19"/>
       <c r="W24" s="19"/>
       <c r="X24" s="19"/>
@@ -1934,28 +2044,28 @@
     </row>
     <row r="25" spans="1:34" ht="16.5" customHeight="1">
       <c r="A25" s="19"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="67" t="s">
+      <c r="B25" s="62"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="40"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="44"/>
       <c r="V25" s="19"/>
       <c r="W25" s="19"/>
       <c r="X25" s="19"/>
@@ -1985,12 +2095,12 @@
       <c r="L26" s="36"/>
       <c r="M26" s="36"/>
       <c r="N26" s="36"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="40"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="44"/>
       <c r="U26" s="30"/>
       <c r="V26" s="30"/>
       <c r="W26" s="30"/>
@@ -37072,23 +37182,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="N5:T5"/>
-    <mergeCell ref="H6:T6"/>
-    <mergeCell ref="H7:T7"/>
-    <mergeCell ref="H8:T8"/>
-    <mergeCell ref="H9:T9"/>
-    <mergeCell ref="H10:T10"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:T13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="H15:T17"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="N25:U25"/>
     <mergeCell ref="O26:T26"/>
     <mergeCell ref="C15:G17"/>
     <mergeCell ref="A21:G21"/>
@@ -37097,6 +37190,23 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="H24:M24"/>
     <mergeCell ref="N24:U24"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="H15:T17"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="N25:U25"/>
+    <mergeCell ref="H8:T8"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:T13"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="N5:T5"/>
+    <mergeCell ref="H6:T6"/>
+    <mergeCell ref="H7:T7"/>
   </mergeCells>
   <conditionalFormatting sqref="H11">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="sindi">
@@ -37109,7 +37219,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.94488188976377963" bottom="0.74803149606299213" header="0" footer="0"/>
-  <pageSetup fitToHeight="0" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="72" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/templates/cambio_dia_laboral.xlsx
+++ b/templates/cambio_dia_laboral.xlsx
@@ -170,13 +170,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="12"/>
       <color theme="4"/>
@@ -186,6 +179,13 @@
     <font>
       <i/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
@@ -509,26 +509,74 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -539,6 +587,36 @@
     <xf numFmtId="164" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -548,113 +626,35 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -933,7 +933,7 @@
   <dimension ref="A1:U999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:G25"/>
+      <selection activeCell="H24" sqref="H24:U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -956,44 +956,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1001,22 +1001,22 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="12"/>
+      <c r="U2" s="45"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -1024,7 +1024,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="12"/>
+      <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29"/>
@@ -1049,7 +1049,7 @@
       <c r="R4" s="30"/>
       <c r="S4" s="30"/>
       <c r="T4" s="30"/>
-      <c r="U4" s="12"/>
+      <c r="U4" s="45"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -1059,10 +1059,10 @@
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
-      <c r="F5" s="23">
+      <c r="F5" s="49">
         <v>0</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="50"/>
       <c r="H5" s="27"/>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -1078,7 +1078,7 @@
       <c r="R5" s="31"/>
       <c r="S5" s="31"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="12"/>
+      <c r="U5" s="45"/>
     </row>
     <row r="6" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
@@ -1093,19 +1093,19 @@
       <c r="H6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="12"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="45"/>
     </row>
     <row r="7" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
@@ -1117,22 +1117,22 @@
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="12"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
@@ -1144,22 +1144,22 @@
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="12"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="45"/>
     </row>
     <row r="9" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
@@ -1171,22 +1171,22 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="12"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="45"/>
     </row>
     <row r="10" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
@@ -1198,22 +1198,22 @@
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="12"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="45"/>
     </row>
     <row r="11" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
@@ -1225,273 +1225,273 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="12"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="45"/>
     </row>
     <row r="12" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="12"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="45"/>
     </row>
     <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="18" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21" t="s">
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="12"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="45"/>
     </row>
     <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="18" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="12"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="45"/>
     </row>
     <row r="15" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="42" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="10" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="12"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="45"/>
     </row>
     <row r="16" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="12"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="45"/>
     </row>
     <row r="17" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="12"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="45"/>
     </row>
     <row r="18" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
     </row>
     <row r="19" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
     </row>
     <row r="20" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
     </row>
     <row r="21" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="34" t="s">
+      <c r="A21" s="47"/>
+      <c r="B21" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="34" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="34" t="s">
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
     </row>
     <row r="22" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1514,7 +1514,7 @@
       <c r="U22" s="5"/>
     </row>
     <row r="23" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="8"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1537,62 +1537,62 @@
       <c r="U23" s="8"/>
     </row>
     <row r="24" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="35" t="s">
+      <c r="A24" s="47"/>
+      <c r="B24" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="36" t="s">
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="36" t="s">
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
     </row>
     <row r="25" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="59" t="s">
+      <c r="A25" s="47"/>
+      <c r="B25" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="33" t="s">
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="33" t="s">
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
     </row>
     <row r="26" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2570,34 +2570,6 @@
     <row r="999" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="H7:T7"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="N25:U25"/>
-    <mergeCell ref="C15:G17"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="N21:U21"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="N24:U24"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="N5:T5"/>
-    <mergeCell ref="H6:T6"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:T14"/>
     <mergeCell ref="H15:T17"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A16:B16"/>
@@ -2614,6 +2586,34 @@
     <mergeCell ref="H13:T13"/>
     <mergeCell ref="A2:M3"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="N5:T5"/>
+    <mergeCell ref="H6:T6"/>
+    <mergeCell ref="H7:T7"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="N25:U25"/>
+    <mergeCell ref="C15:G17"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="N21:U21"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="N24:U24"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
   </mergeCells>
   <conditionalFormatting sqref="H11">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="sindi">

--- a/templates/cambio_dia_laboral.xlsx
+++ b/templates/cambio_dia_laboral.xlsx
@@ -484,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -509,74 +509,43 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -590,33 +559,6 @@
     <xf numFmtId="164" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -626,11 +568,32 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -638,6 +601,52 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -647,13 +656,13 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -933,7 +942,7 @@
   <dimension ref="A1:U999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:U25"/>
+      <selection activeCell="N25" sqref="N25:U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -956,44 +965,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1001,22 +1010,22 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="45"/>
+      <c r="U2" s="16"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -1024,474 +1033,474 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="45"/>
+      <c r="U3" s="16"/>
     </row>
     <row r="4" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
       <c r="L4" s="3"/>
       <c r="M4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="45"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="16"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="49">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="29">
         <v>0</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="31" t="s">
+      <c r="G5" s="30"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="45"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="16"/>
     </row>
     <row r="6" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="32" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="45"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="16"/>
     </row>
     <row r="7" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="45"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="16"/>
     </row>
     <row r="8" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="10" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="45"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="16"/>
     </row>
     <row r="9" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="10" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="45"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="16"/>
     </row>
     <row r="10" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="10" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="45"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="16"/>
     </row>
     <row r="11" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="10" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="45"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="16"/>
     </row>
     <row r="12" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="45"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="16"/>
     </row>
     <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="34" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="45"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="16"/>
     </row>
     <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="34" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="45"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="16"/>
     </row>
     <row r="15" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="12" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="39" t="s">
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="45"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="16"/>
     </row>
     <row r="16" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="45"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="16"/>
     </row>
     <row r="17" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="45"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="16"/>
     </row>
     <row r="18" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
     </row>
     <row r="19" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
     </row>
     <row r="20" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
     </row>
     <row r="21" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="21" t="s">
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="21" t="s">
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
     </row>
     <row r="22" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1514,7 +1523,7 @@
       <c r="U22" s="5"/>
     </row>
     <row r="23" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="8"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1537,24 +1546,24 @@
       <c r="U23" s="8"/>
     </row>
     <row r="24" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="51" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="55" t="s">
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="55" t="s">
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="61" t="s">
         <v>17</v>
       </c>
       <c r="O24" s="56"/>
@@ -1566,33 +1575,33 @@
       <c r="U24" s="56"/>
     </row>
     <row r="25" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="53" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="58" t="s">
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="58" t="s">
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
     </row>
     <row r="26" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2570,6 +2579,34 @@
     <row r="999" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="H7:T7"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="N25:U25"/>
+    <mergeCell ref="C15:G17"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="N21:U21"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="N24:U24"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="N5:T5"/>
+    <mergeCell ref="H6:T6"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:T14"/>
     <mergeCell ref="H15:T17"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A16:B16"/>
@@ -2586,34 +2623,6 @@
     <mergeCell ref="H13:T13"/>
     <mergeCell ref="A2:M3"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="N5:T5"/>
-    <mergeCell ref="H6:T6"/>
-    <mergeCell ref="H7:T7"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="N25:U25"/>
-    <mergeCell ref="C15:G17"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="N21:U21"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="N24:U24"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
   </mergeCells>
   <conditionalFormatting sqref="H11">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="sindi">
